--- a/data/pca/factorExposure/factorExposure_2015-03-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01903234145517157</v>
+        <v>0.01099018891507161</v>
       </c>
       <c r="C2">
-        <v>0.02806540758121567</v>
+        <v>0.05260199350245584</v>
       </c>
       <c r="D2">
-        <v>-0.1434845743862775</v>
+        <v>0.1103872057026845</v>
       </c>
       <c r="E2">
-        <v>-0.05956163496340455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.06155641131365631</v>
+      </c>
+      <c r="F2">
+        <v>-0.03577011901280781</v>
+      </c>
+      <c r="G2">
+        <v>0.1479254417327942</v>
+      </c>
+      <c r="H2">
+        <v>-0.05048800947945632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0438978894523135</v>
+        <v>0.02182854342821767</v>
       </c>
       <c r="C4">
-        <v>0.07933224829192656</v>
+        <v>0.1148166859137801</v>
       </c>
       <c r="D4">
-        <v>-0.1050262771052868</v>
+        <v>0.1066149681009787</v>
       </c>
       <c r="E4">
-        <v>-0.1156224821952589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.06573053229192545</v>
+      </c>
+      <c r="F4">
+        <v>-0.09173479069340419</v>
+      </c>
+      <c r="G4">
+        <v>0.01914858508460574</v>
+      </c>
+      <c r="H4">
+        <v>0.07450648586859304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02992616233590192</v>
+        <v>0.03479670454325471</v>
       </c>
       <c r="C6">
-        <v>0.02017137223085159</v>
+        <v>0.03894231138509576</v>
       </c>
       <c r="D6">
-        <v>-0.1104645834403502</v>
+        <v>0.08773147343122566</v>
       </c>
       <c r="E6">
-        <v>-0.07436415236007425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0924930369464942</v>
+      </c>
+      <c r="F6">
+        <v>-0.04024610289711068</v>
+      </c>
+      <c r="G6">
+        <v>-0.0004410032140008677</v>
+      </c>
+      <c r="H6">
+        <v>-0.01371861623207845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.001407869237883164</v>
+        <v>0.00730804272503884</v>
       </c>
       <c r="C7">
-        <v>0.0264281265541932</v>
+        <v>0.04173793497466952</v>
       </c>
       <c r="D7">
-        <v>-0.1012963396435218</v>
+        <v>0.08389264403902738</v>
       </c>
       <c r="E7">
-        <v>-0.04418498495993159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.08521048710691512</v>
+      </c>
+      <c r="F7">
+        <v>-0.01478834621676043</v>
+      </c>
+      <c r="G7">
+        <v>-0.006515543061888818</v>
+      </c>
+      <c r="H7">
+        <v>0.02829603682752109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0002117628477953066</v>
+        <v>-0.00504693107439718</v>
       </c>
       <c r="C8">
-        <v>0.02753811303670285</v>
+        <v>0.03792279726600589</v>
       </c>
       <c r="D8">
-        <v>-0.07558360106891361</v>
+        <v>0.05548160040939178</v>
       </c>
       <c r="E8">
-        <v>-0.05865238955371333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.05357319355559496</v>
+      </c>
+      <c r="F8">
+        <v>-0.05066060118162677</v>
+      </c>
+      <c r="G8">
+        <v>0.07402725948452689</v>
+      </c>
+      <c r="H8">
+        <v>0.04322145222386974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03276238998246591</v>
+        <v>0.01486065456746694</v>
       </c>
       <c r="C9">
-        <v>0.06919798973643998</v>
+        <v>0.09410682480612934</v>
       </c>
       <c r="D9">
-        <v>-0.1082366382399051</v>
+        <v>0.09330808770532543</v>
       </c>
       <c r="E9">
-        <v>-0.09459015811287901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.05693761469786622</v>
+      </c>
+      <c r="F9">
+        <v>-0.06010267215100341</v>
+      </c>
+      <c r="G9">
+        <v>0.002666607863376993</v>
+      </c>
+      <c r="H9">
+        <v>0.02666256941101062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.198779166640065</v>
+        <v>0.2444285568237736</v>
       </c>
       <c r="C10">
-        <v>-0.153395512733813</v>
+        <v>-0.0921067789444069</v>
       </c>
       <c r="D10">
-        <v>0.03887892092071368</v>
+        <v>-0.01532805543251701</v>
       </c>
       <c r="E10">
-        <v>-0.03055798470706804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0204299198610388</v>
+      </c>
+      <c r="F10">
+        <v>-0.0422743255744352</v>
+      </c>
+      <c r="G10">
+        <v>-0.005743103270588953</v>
+      </c>
+      <c r="H10">
+        <v>-0.002719484353372929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01223743960659796</v>
+        <v>0.009857293214800427</v>
       </c>
       <c r="C11">
-        <v>0.04354891191478815</v>
+        <v>0.06119353162379735</v>
       </c>
       <c r="D11">
-        <v>-0.04200713685652653</v>
+        <v>0.03414061768334933</v>
       </c>
       <c r="E11">
-        <v>0.006129879848835667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04021368003484989</v>
+      </c>
+      <c r="F11">
+        <v>0.01120937956013662</v>
+      </c>
+      <c r="G11">
+        <v>-0.004536760265718092</v>
+      </c>
+      <c r="H11">
+        <v>0.02146860525641864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01029467536177214</v>
+        <v>0.009817612841442849</v>
       </c>
       <c r="C12">
-        <v>0.04348983166477961</v>
+        <v>0.05160197835822517</v>
       </c>
       <c r="D12">
-        <v>-0.05756658946211263</v>
+        <v>0.04173373177938963</v>
       </c>
       <c r="E12">
-        <v>-0.01209340722821022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03476175818103099</v>
+      </c>
+      <c r="F12">
+        <v>0.0116968618400529</v>
+      </c>
+      <c r="G12">
+        <v>-0.01287063888422402</v>
+      </c>
+      <c r="H12">
+        <v>-0.01637755287599032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007534483111339965</v>
+        <v>0.004932466591463193</v>
       </c>
       <c r="C13">
-        <v>0.02997867690100702</v>
+        <v>0.06055221378441776</v>
       </c>
       <c r="D13">
-        <v>-0.1308180854679706</v>
+        <v>0.1450608820357536</v>
       </c>
       <c r="E13">
-        <v>-0.08160505740297545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.08671086155606166</v>
+      </c>
+      <c r="F13">
+        <v>-0.04102213712553895</v>
+      </c>
+      <c r="G13">
+        <v>0.06449550601925638</v>
+      </c>
+      <c r="H13">
+        <v>-0.06893869614198816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009471908075725004</v>
+        <v>0.003311779925918195</v>
       </c>
       <c r="C14">
-        <v>0.0167409382070922</v>
+        <v>0.03426782354818732</v>
       </c>
       <c r="D14">
-        <v>-0.07445284709649171</v>
+        <v>0.08222594522857322</v>
       </c>
       <c r="E14">
-        <v>-0.0397280624662996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.09306446525618155</v>
+      </c>
+      <c r="F14">
+        <v>-0.03357865680763309</v>
+      </c>
+      <c r="G14">
+        <v>0.01974478621340231</v>
+      </c>
+      <c r="H14">
+        <v>-0.02929370472634875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003540522082996242</v>
+        <v>-0.003479420620650931</v>
       </c>
       <c r="C15">
-        <v>0.01309697644042991</v>
+        <v>0.03116717197195244</v>
       </c>
       <c r="D15">
-        <v>-0.04939263319443926</v>
+        <v>0.0571809949997752</v>
       </c>
       <c r="E15">
-        <v>-0.01593043328718299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.04310053186741816</v>
+      </c>
+      <c r="F15">
+        <v>-0.009268998881045055</v>
+      </c>
+      <c r="G15">
+        <v>0.02672989132556627</v>
+      </c>
+      <c r="H15">
+        <v>0.01492512463077515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01182053333979422</v>
+        <v>0.009590645861277879</v>
       </c>
       <c r="C16">
-        <v>0.04051308505054759</v>
+        <v>0.05320512338559261</v>
       </c>
       <c r="D16">
-        <v>-0.04634281478926346</v>
+        <v>0.03652343112113996</v>
       </c>
       <c r="E16">
-        <v>-0.005806861325947118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.04007732853116323</v>
+      </c>
+      <c r="F16">
+        <v>0.006233118414640044</v>
+      </c>
+      <c r="G16">
+        <v>-0.01469080120040503</v>
+      </c>
+      <c r="H16">
+        <v>0.009547196337200569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0005737172957406021</v>
+        <v>-0.001555076407133266</v>
       </c>
       <c r="C19">
-        <v>0.02057355498853347</v>
+        <v>0.01671452739190482</v>
       </c>
       <c r="D19">
-        <v>-0.06875583900924874</v>
+        <v>0.03767654175336453</v>
       </c>
       <c r="E19">
-        <v>-0.03781451865101646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.005463011635494284</v>
+      </c>
+      <c r="F19">
+        <v>-0.007587125119375687</v>
+      </c>
+      <c r="G19">
+        <v>0.01880567927624593</v>
+      </c>
+      <c r="H19">
+        <v>-0.01673552281130272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001155633333955346</v>
+        <v>0.005197102539569465</v>
       </c>
       <c r="C20">
-        <v>0.02787136699520589</v>
+        <v>0.04559748242218417</v>
       </c>
       <c r="D20">
-        <v>-0.06918507943137363</v>
+        <v>0.07341932968268243</v>
       </c>
       <c r="E20">
-        <v>-0.05438901861474452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05427228734371779</v>
+      </c>
+      <c r="F20">
+        <v>-0.02521922548317272</v>
+      </c>
+      <c r="G20">
+        <v>-0.01205540612620657</v>
+      </c>
+      <c r="H20">
+        <v>0.03106183025682947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002532208427799673</v>
+        <v>0.003781128282805122</v>
       </c>
       <c r="C21">
-        <v>0.0318462183453818</v>
+        <v>0.04629053602979667</v>
       </c>
       <c r="D21">
-        <v>-0.1157482064784498</v>
+        <v>0.1063377912357136</v>
       </c>
       <c r="E21">
-        <v>-0.1221219264631958</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.06954378117020069</v>
+      </c>
+      <c r="F21">
+        <v>-0.09745893501518248</v>
+      </c>
+      <c r="G21">
+        <v>0.0758465078658824</v>
+      </c>
+      <c r="H21">
+        <v>-0.08156551778369653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004016571159494949</v>
+        <v>-0.006285872861111104</v>
       </c>
       <c r="C22">
-        <v>0.05397730536039316</v>
+        <v>0.08618431254706047</v>
       </c>
       <c r="D22">
-        <v>-0.2176678607540791</v>
+        <v>0.2130432910445443</v>
       </c>
       <c r="E22">
-        <v>-0.09695590739704149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06968569161488773</v>
+      </c>
+      <c r="F22">
+        <v>-0.03631298934735532</v>
+      </c>
+      <c r="G22">
+        <v>0.2394990965420103</v>
+      </c>
+      <c r="H22">
+        <v>0.1256058518285031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004448239966064948</v>
+        <v>-0.003173046389194896</v>
       </c>
       <c r="C23">
-        <v>0.05438654385346373</v>
+        <v>0.08797225190818013</v>
       </c>
       <c r="D23">
-        <v>-0.2165763553626707</v>
+        <v>0.2165430418768316</v>
       </c>
       <c r="E23">
-        <v>-0.09700382178884751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.06662132043417485</v>
+      </c>
+      <c r="F23">
+        <v>-0.03975624441230025</v>
+      </c>
+      <c r="G23">
+        <v>0.2336532046247694</v>
+      </c>
+      <c r="H23">
+        <v>0.1193724169639375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0168624134493076</v>
+        <v>0.01052555219617122</v>
       </c>
       <c r="C24">
-        <v>0.06189008227465701</v>
+        <v>0.07075264987877622</v>
       </c>
       <c r="D24">
-        <v>-0.06126532140301476</v>
+        <v>0.03757728588686692</v>
       </c>
       <c r="E24">
-        <v>-0.01077531110529998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04997356613191231</v>
+      </c>
+      <c r="F24">
+        <v>0.005234164429758311</v>
+      </c>
+      <c r="G24">
+        <v>0.003275258460205671</v>
+      </c>
+      <c r="H24">
+        <v>0.01361131052397542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01769513433511289</v>
+        <v>0.01513996710573101</v>
       </c>
       <c r="C25">
-        <v>0.05359695430275298</v>
+        <v>0.06516742609205434</v>
       </c>
       <c r="D25">
-        <v>-0.05128124627232048</v>
+        <v>0.04092115836941184</v>
       </c>
       <c r="E25">
-        <v>-0.01484114108648689</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03279213395310583</v>
+      </c>
+      <c r="F25">
+        <v>0.003272841518071944</v>
+      </c>
+      <c r="G25">
+        <v>-0.01063781233683975</v>
+      </c>
+      <c r="H25">
+        <v>0.008665281849482278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005808029775654144</v>
+        <v>0.01616956198819283</v>
       </c>
       <c r="C26">
-        <v>0.01875069864323516</v>
+        <v>0.03236078033923633</v>
       </c>
       <c r="D26">
-        <v>-0.0613684968974882</v>
+        <v>0.04947945161624897</v>
       </c>
       <c r="E26">
-        <v>-0.04236057099158293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.06835545877900706</v>
+      </c>
+      <c r="F26">
+        <v>-0.04808150804287525</v>
+      </c>
+      <c r="G26">
+        <v>0.02719731165760814</v>
+      </c>
+      <c r="H26">
+        <v>0.0002193056308222745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2821923954303605</v>
+        <v>0.3142342062954604</v>
       </c>
       <c r="C28">
-        <v>-0.1638808634827336</v>
+        <v>-0.08935089051212886</v>
       </c>
       <c r="D28">
-        <v>0.003737002070742347</v>
+        <v>-0.01174413757333583</v>
       </c>
       <c r="E28">
-        <v>-0.03324018189988764</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05439580066872166</v>
+      </c>
+      <c r="F28">
+        <v>-0.04549442862468898</v>
+      </c>
+      <c r="G28">
+        <v>0.06229514824419811</v>
+      </c>
+      <c r="H28">
+        <v>0.02214427243781576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004132097396029883</v>
+        <v>0.002189231840413179</v>
       </c>
       <c r="C29">
-        <v>0.02170687335839456</v>
+        <v>0.04082993556121213</v>
       </c>
       <c r="D29">
-        <v>-0.07251718233315504</v>
+        <v>0.08586786135067676</v>
       </c>
       <c r="E29">
-        <v>-0.04811412577189524</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1067878702271302</v>
+      </c>
+      <c r="F29">
+        <v>-0.03881310311321003</v>
+      </c>
+      <c r="G29">
+        <v>0.01506868304951362</v>
+      </c>
+      <c r="H29">
+        <v>-0.03733962395429252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02626147753229016</v>
+        <v>0.01791648505335769</v>
       </c>
       <c r="C30">
-        <v>0.07408751344552283</v>
+        <v>0.100312901012944</v>
       </c>
       <c r="D30">
-        <v>-0.1496039925679777</v>
+        <v>0.1096301345824753</v>
       </c>
       <c r="E30">
-        <v>-0.06505364406883977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.09431761567069269</v>
+      </c>
+      <c r="F30">
+        <v>-0.01563012586955402</v>
+      </c>
+      <c r="G30">
+        <v>0.02024441139385132</v>
+      </c>
+      <c r="H30">
+        <v>0.0470054983515349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03165848145098378</v>
+        <v>0.01069705044224428</v>
       </c>
       <c r="C31">
-        <v>0.08562732944650761</v>
+        <v>0.09516144735585119</v>
       </c>
       <c r="D31">
-        <v>-0.0530698748179953</v>
+        <v>0.02936229292592858</v>
       </c>
       <c r="E31">
-        <v>-0.0258074304924207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02576084501746698</v>
+      </c>
+      <c r="F31">
+        <v>-0.01762104529527457</v>
+      </c>
+      <c r="G31">
+        <v>0.01737534303120729</v>
+      </c>
+      <c r="H31">
+        <v>0.006744878822609806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01571162041298716</v>
+        <v>0.01461864065371351</v>
       </c>
       <c r="C32">
-        <v>0.04253497441353968</v>
+        <v>0.05142404031770503</v>
       </c>
       <c r="D32">
-        <v>-0.08832070600124753</v>
+        <v>0.0747801214613774</v>
       </c>
       <c r="E32">
-        <v>-0.07266705571533358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0160349972076156</v>
+      </c>
+      <c r="F32">
+        <v>-0.05036019975094307</v>
+      </c>
+      <c r="G32">
+        <v>0.03484340029634508</v>
+      </c>
+      <c r="H32">
+        <v>-0.02253256671560533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004463493360879595</v>
+        <v>0.007606737839424966</v>
       </c>
       <c r="C33">
-        <v>0.04197912321604051</v>
+        <v>0.06534947594562984</v>
       </c>
       <c r="D33">
-        <v>-0.1070123894892787</v>
+        <v>0.1027306177075292</v>
       </c>
       <c r="E33">
-        <v>-0.06790920050940279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.06951256960434873</v>
+      </c>
+      <c r="F33">
+        <v>-0.03105277731320868</v>
+      </c>
+      <c r="G33">
+        <v>0.01070298054707068</v>
+      </c>
+      <c r="H33">
+        <v>0.002171340197455858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01384684736312138</v>
+        <v>0.009158139233831514</v>
       </c>
       <c r="C34">
-        <v>0.06148676751711656</v>
+        <v>0.06298574022671742</v>
       </c>
       <c r="D34">
-        <v>-0.05334481284136987</v>
+        <v>0.01921793771268292</v>
       </c>
       <c r="E34">
-        <v>0.03285842266090207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03705461697766616</v>
+      </c>
+      <c r="F34">
+        <v>0.03811668795293204</v>
+      </c>
+      <c r="G34">
+        <v>0.003932948375473547</v>
+      </c>
+      <c r="H34">
+        <v>-0.001753296831877564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0003555214296172069</v>
+        <v>0.003870397700366196</v>
       </c>
       <c r="C35">
-        <v>0.0008748530060186722</v>
+        <v>0.01575761104288565</v>
       </c>
       <c r="D35">
-        <v>-0.0008825625642793873</v>
+        <v>0.03330114852450182</v>
       </c>
       <c r="E35">
-        <v>0.0002700588717872827</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.02363490852870567</v>
+      </c>
+      <c r="F35">
+        <v>-0.01941872090443798</v>
+      </c>
+      <c r="G35">
+        <v>-0.0004076400391451462</v>
+      </c>
+      <c r="H35">
+        <v>-0.004558256778540624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.007959162236472838</v>
+        <v>0.01124764830327587</v>
       </c>
       <c r="C36">
-        <v>0.009249566822420389</v>
+        <v>0.02500041335026624</v>
       </c>
       <c r="D36">
-        <v>-0.06314143884539855</v>
+        <v>0.06015785226110749</v>
       </c>
       <c r="E36">
-        <v>-0.0625447745059213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.05775148661808958</v>
+      </c>
+      <c r="F36">
+        <v>-0.04946947076236023</v>
+      </c>
+      <c r="G36">
+        <v>0.01471021379880221</v>
+      </c>
+      <c r="H36">
+        <v>0.0006758919206873394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004472762062780449</v>
+        <v>0.01083025132893102</v>
       </c>
       <c r="C38">
-        <v>0.009721605020973629</v>
+        <v>0.02951931760745383</v>
       </c>
       <c r="D38">
-        <v>-0.09230333967319568</v>
+        <v>0.08539523339627221</v>
       </c>
       <c r="E38">
-        <v>-0.03672940316661712</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.04690706737591836</v>
+      </c>
+      <c r="F38">
+        <v>-0.009292895799006258</v>
+      </c>
+      <c r="G38">
+        <v>0.03417015683295965</v>
+      </c>
+      <c r="H38">
+        <v>0.03704329049035457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.009822065658203882</v>
+        <v>0.005622199610569606</v>
       </c>
       <c r="C39">
-        <v>0.06350669661751511</v>
+        <v>0.08871554299387961</v>
       </c>
       <c r="D39">
-        <v>-0.1028411642295609</v>
+        <v>0.07741376453974728</v>
       </c>
       <c r="E39">
-        <v>-0.02585151273117901</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.08857905148139569</v>
+      </c>
+      <c r="F39">
+        <v>0.005965697481166449</v>
+      </c>
+      <c r="G39">
+        <v>3.23053702235213e-05</v>
+      </c>
+      <c r="H39">
+        <v>0.01190556945399004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0158652770629664</v>
+        <v>0.0137330744509573</v>
       </c>
       <c r="C40">
-        <v>0.02690760761712903</v>
+        <v>0.04263233075911463</v>
       </c>
       <c r="D40">
-        <v>-0.1161357727140074</v>
+        <v>0.07963983666991604</v>
       </c>
       <c r="E40">
-        <v>-0.02349985011215969</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0701644232968269</v>
+      </c>
+      <c r="F40">
+        <v>0.02324597026482214</v>
+      </c>
+      <c r="G40">
+        <v>0.08794795961955855</v>
+      </c>
+      <c r="H40">
+        <v>-0.01341883968513062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0100256885517274</v>
+        <v>0.01839365166413911</v>
       </c>
       <c r="C41">
-        <v>0.006349671013566687</v>
+        <v>0.02438002929115812</v>
       </c>
       <c r="D41">
-        <v>-0.03199536645873747</v>
+        <v>0.03957195508368427</v>
       </c>
       <c r="E41">
-        <v>-0.02886708411005435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01887212744381729</v>
+      </c>
+      <c r="F41">
+        <v>-0.02074755274065657</v>
+      </c>
+      <c r="G41">
+        <v>0.009527306261946708</v>
+      </c>
+      <c r="H41">
+        <v>0.003665093825732265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.001000317853294564</v>
+        <v>0.01004568636550127</v>
       </c>
       <c r="C43">
-        <v>0.001328977646720665</v>
+        <v>0.01734957709077367</v>
       </c>
       <c r="D43">
-        <v>-0.04485933050233049</v>
+        <v>0.04846999843295043</v>
       </c>
       <c r="E43">
-        <v>-0.03289302757562866</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.03084875707033879</v>
+      </c>
+      <c r="F43">
+        <v>-0.02360035760041773</v>
+      </c>
+      <c r="G43">
+        <v>0.005191279801123399</v>
+      </c>
+      <c r="H43">
+        <v>0.01907863293252772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01783193609247371</v>
+        <v>0.01046316947846155</v>
       </c>
       <c r="C44">
-        <v>0.02967131474164103</v>
+        <v>0.05183659406615178</v>
       </c>
       <c r="D44">
-        <v>-0.0972054561734453</v>
+        <v>0.09102631969973658</v>
       </c>
       <c r="E44">
-        <v>-0.08228595733743743</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07905165107533904</v>
+      </c>
+      <c r="F44">
+        <v>-0.03822633690129779</v>
+      </c>
+      <c r="G44">
+        <v>0.04200447788917467</v>
+      </c>
+      <c r="H44">
+        <v>0.02754407119941483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002029320991291265</v>
+        <v>-0.00120316473090215</v>
       </c>
       <c r="C46">
-        <v>0.03173316718942281</v>
+        <v>0.04364139482003709</v>
       </c>
       <c r="D46">
-        <v>-0.08116397353559046</v>
+        <v>0.06227513464931569</v>
       </c>
       <c r="E46">
-        <v>-0.04442666817180401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.08096315940685843</v>
+      </c>
+      <c r="F46">
+        <v>-0.0328503677308761</v>
+      </c>
+      <c r="G46">
+        <v>0.02415469027535602</v>
+      </c>
+      <c r="H46">
+        <v>-0.0004998778324810251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0648980448602398</v>
+        <v>0.03040352964299382</v>
       </c>
       <c r="C47">
-        <v>0.1159479902698092</v>
+        <v>0.1251519738195584</v>
       </c>
       <c r="D47">
-        <v>-0.05904671854446564</v>
+        <v>0.02140848274643006</v>
       </c>
       <c r="E47">
-        <v>-0.02640229072333301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0016379729518209</v>
+      </c>
+      <c r="F47">
+        <v>0.003393322538652493</v>
+      </c>
+      <c r="G47">
+        <v>-0.01936215631193916</v>
+      </c>
+      <c r="H47">
+        <v>0.00953920660128846</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005177132877689988</v>
+        <v>0.01248573657689319</v>
       </c>
       <c r="C48">
-        <v>0.01784493238491153</v>
+        <v>0.03384384011862624</v>
       </c>
       <c r="D48">
-        <v>-0.06467469007663001</v>
+        <v>0.06462471494813173</v>
       </c>
       <c r="E48">
-        <v>-0.06619995670160173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.05580113041984466</v>
+      </c>
+      <c r="F48">
+        <v>-0.0585793856690458</v>
+      </c>
+      <c r="G48">
+        <v>0.02058214271726606</v>
+      </c>
+      <c r="H48">
+        <v>0.01405174325974263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002134833308606498</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.001628607709467072</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.003119050077525871</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0001988348402407549</v>
+      </c>
+      <c r="F49">
+        <v>0.002013796169924227</v>
+      </c>
+      <c r="G49">
+        <v>-0.004310812077585092</v>
+      </c>
+      <c r="H49">
+        <v>-0.003211823748170757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.02817573802960002</v>
+        <v>0.01369351976888414</v>
       </c>
       <c r="C50">
-        <v>0.05954302700425885</v>
+        <v>0.07575910689399716</v>
       </c>
       <c r="D50">
-        <v>-0.05990389596940599</v>
+        <v>0.04182275044393682</v>
       </c>
       <c r="E50">
-        <v>-0.01912452246287215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03263008168934586</v>
+      </c>
+      <c r="F50">
+        <v>-0.00989313611502458</v>
+      </c>
+      <c r="G50">
+        <v>0.01469498608750986</v>
+      </c>
+      <c r="H50">
+        <v>0.01772784003606948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005118950820325234</v>
+        <v>-0.004167522869239294</v>
       </c>
       <c r="C51">
-        <v>0.005711783239574166</v>
+        <v>0.01851439148664392</v>
       </c>
       <c r="D51">
-        <v>-0.06087631919419136</v>
+        <v>0.03989246274167639</v>
       </c>
       <c r="E51">
-        <v>-0.03719118693496856</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05902413734428364</v>
+      </c>
+      <c r="F51">
+        <v>-0.0392925581753085</v>
+      </c>
+      <c r="G51">
+        <v>0.04891619097523514</v>
+      </c>
+      <c r="H51">
+        <v>0.0004075664735833844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0988833916764085</v>
+        <v>0.05845888604887616</v>
       </c>
       <c r="C53">
-        <v>0.1387959647782516</v>
+        <v>0.163022133464298</v>
       </c>
       <c r="D53">
-        <v>0.001196369028341642</v>
+        <v>-0.02154528198891579</v>
       </c>
       <c r="E53">
-        <v>-0.03500857121083717</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02707640526283942</v>
+      </c>
+      <c r="F53">
+        <v>-0.03946950372399959</v>
+      </c>
+      <c r="G53">
+        <v>0.007224173188830194</v>
+      </c>
+      <c r="H53">
+        <v>0.006192269797813863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.006455724736158649</v>
+        <v>0.01145401529989387</v>
       </c>
       <c r="C54">
-        <v>0.02295943526173688</v>
+        <v>0.04089505350002593</v>
       </c>
       <c r="D54">
-        <v>-0.0888969900353177</v>
+        <v>0.07223121701871918</v>
       </c>
       <c r="E54">
-        <v>-0.03324459914557772</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.04767721279614889</v>
+      </c>
+      <c r="F54">
+        <v>-0.009814615025461838</v>
+      </c>
+      <c r="G54">
+        <v>0.02521828685485341</v>
+      </c>
+      <c r="H54">
+        <v>0.02816724566348363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08247211641261495</v>
+        <v>0.04121668426644601</v>
       </c>
       <c r="C55">
-        <v>0.1155902302348877</v>
+        <v>0.1284308140878612</v>
       </c>
       <c r="D55">
-        <v>8.001041180697215e-05</v>
+        <v>-0.04533441827159659</v>
       </c>
       <c r="E55">
-        <v>0.00811206491659548</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.008883043428717438</v>
+      </c>
+      <c r="F55">
+        <v>-0.001324537084878113</v>
+      </c>
+      <c r="G55">
+        <v>0.01535176548167435</v>
+      </c>
+      <c r="H55">
+        <v>-0.004967207421235974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1225842663862056</v>
+        <v>0.05975679047892359</v>
       </c>
       <c r="C56">
-        <v>0.1629900817926569</v>
+        <v>0.192747195904659</v>
       </c>
       <c r="D56">
-        <v>-0.02662557386579197</v>
+        <v>-0.03917573058597187</v>
       </c>
       <c r="E56">
-        <v>0.01138269338565199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03293679235387726</v>
+      </c>
+      <c r="F56">
+        <v>-0.001611872746591575</v>
+      </c>
+      <c r="G56">
+        <v>0.06775706355223769</v>
+      </c>
+      <c r="H56">
+        <v>0.006887107316858131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005262240450518222</v>
+        <v>0.01001955903711096</v>
       </c>
       <c r="C58">
-        <v>0.01984678088256873</v>
+        <v>0.07055209555074471</v>
       </c>
       <c r="D58">
-        <v>-0.22614614031578</v>
+        <v>0.2600464989643766</v>
       </c>
       <c r="E58">
-        <v>-0.1835181516874264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.09352503181288783</v>
+      </c>
+      <c r="F58">
+        <v>-0.144069805384501</v>
+      </c>
+      <c r="G58">
+        <v>0.1634708443671465</v>
+      </c>
+      <c r="H58">
+        <v>0.08790043660867462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2049976833683861</v>
+        <v>0.2594883249812424</v>
       </c>
       <c r="C59">
-        <v>-0.1181604928015272</v>
+        <v>-0.05462903747515033</v>
       </c>
       <c r="D59">
-        <v>-0.0547355274911766</v>
+        <v>0.04306366229698722</v>
       </c>
       <c r="E59">
-        <v>-0.0390459446295722</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01303679340673305</v>
+      </c>
+      <c r="F59">
+        <v>-0.01843092729567639</v>
+      </c>
+      <c r="G59">
+        <v>0.03160595892620593</v>
+      </c>
+      <c r="H59">
+        <v>-0.03267798964965037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1750896167767592</v>
+        <v>0.1528003801056617</v>
       </c>
       <c r="C60">
-        <v>0.1129769353885663</v>
+        <v>0.166634115496964</v>
       </c>
       <c r="D60">
-        <v>-0.1228437584912805</v>
+        <v>0.03706084592340136</v>
       </c>
       <c r="E60">
-        <v>0.06217013869113013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1069969999189572</v>
+      </c>
+      <c r="F60">
+        <v>0.2013531441087116</v>
+      </c>
+      <c r="G60">
+        <v>-0.2521358775145456</v>
+      </c>
+      <c r="H60">
+        <v>-0.1516487817462076</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0213312791337101</v>
+        <v>0.01332208112203879</v>
       </c>
       <c r="C61">
-        <v>0.05927579370135878</v>
+        <v>0.08190542739158019</v>
       </c>
       <c r="D61">
-        <v>-0.07680747965018707</v>
+        <v>0.05480276882582678</v>
       </c>
       <c r="E61">
-        <v>-0.009410931442380295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.06246241083910576</v>
+      </c>
+      <c r="F61">
+        <v>0.01279198256813688</v>
+      </c>
+      <c r="G61">
+        <v>-0.002941656713056256</v>
+      </c>
+      <c r="H61">
+        <v>0.002394315118153064</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009728288933727593</v>
+        <v>0.0154986603360637</v>
       </c>
       <c r="C63">
-        <v>0.02743924631156953</v>
+        <v>0.04630563239557015</v>
       </c>
       <c r="D63">
-        <v>-0.07768255112870472</v>
+        <v>0.04674949052504376</v>
       </c>
       <c r="E63">
-        <v>-0.03717996020785645</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.08363172595932787</v>
+      </c>
+      <c r="F63">
+        <v>-0.0219113532767491</v>
+      </c>
+      <c r="G63">
+        <v>0.008461377147578676</v>
+      </c>
+      <c r="H63">
+        <v>0.008215990657736306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04450681570785416</v>
+        <v>0.01553620938881301</v>
       </c>
       <c r="C64">
-        <v>0.09543871231005131</v>
+        <v>0.106242136165684</v>
       </c>
       <c r="D64">
-        <v>-0.01686900030926513</v>
+        <v>0.00702393490188273</v>
       </c>
       <c r="E64">
-        <v>-0.02340054242714309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03329007605641315</v>
+      </c>
+      <c r="F64">
+        <v>-0.01725729461353475</v>
+      </c>
+      <c r="G64">
+        <v>-0.02622909001940913</v>
+      </c>
+      <c r="H64">
+        <v>0.04045778349847855</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0257010513328036</v>
+        <v>0.02610074520547196</v>
       </c>
       <c r="C65">
-        <v>0.02021314516097046</v>
+        <v>0.04579292052908262</v>
       </c>
       <c r="D65">
-        <v>-0.09486123537412612</v>
+        <v>0.09166842018372466</v>
       </c>
       <c r="E65">
-        <v>-0.03814139478634011</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.07187041012982553</v>
+      </c>
+      <c r="F65">
+        <v>0.01019023888800108</v>
+      </c>
+      <c r="G65">
+        <v>-0.0497977644193191</v>
+      </c>
+      <c r="H65">
+        <v>0.02034357126345737</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01715821265939731</v>
+        <v>0.007135127634464038</v>
       </c>
       <c r="C66">
-        <v>0.07630751486564413</v>
+        <v>0.1101349553406854</v>
       </c>
       <c r="D66">
-        <v>-0.1266865752502017</v>
+        <v>0.1027469930635964</v>
       </c>
       <c r="E66">
-        <v>-0.02892377677219351</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.08583088284638545</v>
+      </c>
+      <c r="F66">
+        <v>0.006399100432043637</v>
+      </c>
+      <c r="G66">
+        <v>0.021063073775369</v>
+      </c>
+      <c r="H66">
+        <v>0.01656586919730977</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01857972333003963</v>
+        <v>0.02009475631024249</v>
       </c>
       <c r="C67">
-        <v>0.02064442009924985</v>
+        <v>0.03675196374247427</v>
       </c>
       <c r="D67">
-        <v>-0.05427970558996257</v>
+        <v>0.04620350983730861</v>
       </c>
       <c r="E67">
-        <v>-0.0006133035879610744</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03649647219787273</v>
+      </c>
+      <c r="F67">
+        <v>0.01962143693782217</v>
+      </c>
+      <c r="G67">
+        <v>0.01058375828191032</v>
+      </c>
+      <c r="H67">
+        <v>0.02652617369247072</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2178806659356214</v>
+        <v>0.2799576505570844</v>
       </c>
       <c r="C68">
-        <v>-0.1306034949056729</v>
+        <v>-0.06722612968772373</v>
       </c>
       <c r="D68">
-        <v>-0.02936012629157043</v>
+        <v>0.03205079608512965</v>
       </c>
       <c r="E68">
-        <v>-0.02837933659645232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.009410197068881181</v>
+      </c>
+      <c r="F68">
+        <v>-0.02457452550888991</v>
+      </c>
+      <c r="G68">
+        <v>0.05049803605383808</v>
+      </c>
+      <c r="H68">
+        <v>-0.006950742468413298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04864497672988561</v>
+        <v>0.01544349515267437</v>
       </c>
       <c r="C69">
-        <v>0.1168173585939051</v>
+        <v>0.1121088589405889</v>
       </c>
       <c r="D69">
-        <v>-0.07392505406110911</v>
+        <v>0.01748025867783463</v>
       </c>
       <c r="E69">
-        <v>-0.02969502876453554</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01249787217264736</v>
+      </c>
+      <c r="F69">
+        <v>0.01094087611419556</v>
+      </c>
+      <c r="G69">
+        <v>-0.009774398622256472</v>
+      </c>
+      <c r="H69">
+        <v>-0.007550155280298962</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2377401617665447</v>
+        <v>0.2732665801937199</v>
       </c>
       <c r="C71">
-        <v>-0.1521371005049184</v>
+        <v>-0.0824782446510869</v>
       </c>
       <c r="D71">
-        <v>-0.01892487110671076</v>
+        <v>0.009095321592559529</v>
       </c>
       <c r="E71">
-        <v>-0.005449380140407646</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.007407837896608736</v>
+      </c>
+      <c r="F71">
+        <v>-0.01211896258354072</v>
+      </c>
+      <c r="G71">
+        <v>0.04502692701528417</v>
+      </c>
+      <c r="H71">
+        <v>0.0172590094268146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09685307468382916</v>
+        <v>0.06413659462477937</v>
       </c>
       <c r="C72">
-        <v>0.07844307823045384</v>
+        <v>0.1237788048020731</v>
       </c>
       <c r="D72">
-        <v>-0.09917581237419087</v>
+        <v>0.04323070359427307</v>
       </c>
       <c r="E72">
-        <v>-0.02312223741084022</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08308565587979387</v>
+      </c>
+      <c r="F72">
+        <v>0.01687817637339463</v>
+      </c>
+      <c r="G72">
+        <v>-0.03411515165955323</v>
+      </c>
+      <c r="H72">
+        <v>-0.0002628040829965208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1701819165661636</v>
+        <v>0.1583659156761789</v>
       </c>
       <c r="C73">
-        <v>0.08830718946314946</v>
+        <v>0.1660109183734463</v>
       </c>
       <c r="D73">
-        <v>-0.1840536662376368</v>
+        <v>0.05319783238197946</v>
       </c>
       <c r="E73">
-        <v>0.1013923793832353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2698021606563442</v>
+      </c>
+      <c r="F73">
+        <v>0.300944639799</v>
+      </c>
+      <c r="G73">
+        <v>-0.4057655295194936</v>
+      </c>
+      <c r="H73">
+        <v>-0.1604045517836049</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09589229831255223</v>
+        <v>0.05169853865306403</v>
       </c>
       <c r="C74">
-        <v>0.1225626861268237</v>
+        <v>0.1416869285680891</v>
       </c>
       <c r="D74">
-        <v>0.04567200063082295</v>
+        <v>-0.04834427917903639</v>
       </c>
       <c r="E74">
-        <v>-0.01643114238216697</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03134773480485757</v>
+      </c>
+      <c r="F74">
+        <v>-0.03264214894980914</v>
+      </c>
+      <c r="G74">
+        <v>-0.005838314102490597</v>
+      </c>
+      <c r="H74">
+        <v>-0.003894958670221214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2022270616809117</v>
+        <v>0.09584141285729353</v>
       </c>
       <c r="C75">
-        <v>0.2226678747402278</v>
+        <v>0.2603382192605567</v>
       </c>
       <c r="D75">
-        <v>0.05484694942881386</v>
+        <v>-0.1182556552365975</v>
       </c>
       <c r="E75">
-        <v>0.0964035809608017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1182784007569967</v>
+      </c>
+      <c r="F75">
+        <v>0.05345189352574602</v>
+      </c>
+      <c r="G75">
+        <v>0.1035007713031494</v>
+      </c>
+      <c r="H75">
+        <v>0.08535200078395795</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1226838028684791</v>
+        <v>0.05887333416807052</v>
       </c>
       <c r="C76">
-        <v>0.1494804512989119</v>
+        <v>0.1777614250191798</v>
       </c>
       <c r="D76">
-        <v>-0.004121969565759915</v>
+        <v>-0.0499886099895142</v>
       </c>
       <c r="E76">
-        <v>0.02180182495153178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04069220950510293</v>
+      </c>
+      <c r="F76">
+        <v>0.00874260902546699</v>
+      </c>
+      <c r="G76">
+        <v>0.04333446360515088</v>
+      </c>
+      <c r="H76">
+        <v>0.01921263450163649</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004384675767592128</v>
+        <v>-0.0009777949187209562</v>
       </c>
       <c r="C77">
-        <v>0.07965946816523779</v>
+        <v>0.1222042781179791</v>
       </c>
       <c r="D77">
-        <v>-0.2302959335911003</v>
+        <v>0.5430020148433401</v>
       </c>
       <c r="E77">
-        <v>-0.1326822407760476</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7456756481840483</v>
+      </c>
+      <c r="F77">
+        <v>0.1532180588250482</v>
+      </c>
+      <c r="G77">
+        <v>-0.1980363706520377</v>
+      </c>
+      <c r="H77">
+        <v>-0.01072138065384936</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02625725957666324</v>
+        <v>0.02025022529515184</v>
       </c>
       <c r="C78">
-        <v>0.07581689714814675</v>
+        <v>0.09529721747143891</v>
       </c>
       <c r="D78">
-        <v>-0.1491413655501607</v>
+        <v>0.07937158264687363</v>
       </c>
       <c r="E78">
-        <v>-0.09190943783231086</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.09093247321245281</v>
+      </c>
+      <c r="F78">
+        <v>-0.04635712932312252</v>
+      </c>
+      <c r="G78">
+        <v>0.09101737266624062</v>
+      </c>
+      <c r="H78">
+        <v>-0.03178245499304113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1035679245780498</v>
+        <v>0.05027102442311212</v>
       </c>
       <c r="C79">
-        <v>0.2137364870489368</v>
+        <v>0.2168259314465382</v>
       </c>
       <c r="D79">
-        <v>0.4994722286823651</v>
+        <v>-0.1394817591263474</v>
       </c>
       <c r="E79">
-        <v>-0.7571917316237577</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.101636412275996</v>
+      </c>
+      <c r="F79">
+        <v>-0.7849269880566251</v>
+      </c>
+      <c r="G79">
+        <v>-0.4316121385734933</v>
+      </c>
+      <c r="H79">
+        <v>-0.03555132199537332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001447842639578321</v>
+        <v>0.007145801035909569</v>
       </c>
       <c r="C80">
-        <v>0.0469518992453526</v>
+        <v>0.04668704021489379</v>
       </c>
       <c r="D80">
-        <v>-0.04527403137918592</v>
+        <v>0.02486849087720021</v>
       </c>
       <c r="E80">
-        <v>-0.004662798051130541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06805727985903259</v>
+      </c>
+      <c r="F80">
+        <v>0.002778055431352539</v>
+      </c>
+      <c r="G80">
+        <v>0.02320369680327095</v>
+      </c>
+      <c r="H80">
+        <v>-0.09169189397132917</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09698546666020248</v>
+        <v>0.03425912670981544</v>
       </c>
       <c r="C81">
-        <v>0.1433998793211019</v>
+        <v>0.1583370870244133</v>
       </c>
       <c r="D81">
-        <v>0.07203779849994509</v>
+        <v>-0.07057659078778306</v>
       </c>
       <c r="E81">
-        <v>0.00668813327748675</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05841979254579661</v>
+      </c>
+      <c r="F81">
+        <v>-0.05131428678391727</v>
+      </c>
+      <c r="G81">
+        <v>0.06950616150042602</v>
+      </c>
+      <c r="H81">
+        <v>-0.003912419854762409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1981736653297038</v>
+        <v>0.07705444006452088</v>
       </c>
       <c r="C82">
-        <v>0.3151466880421466</v>
+        <v>0.2947604377300752</v>
       </c>
       <c r="D82">
-        <v>0.1086109725973775</v>
+        <v>-0.2159839703311413</v>
       </c>
       <c r="E82">
-        <v>0.233869418513751</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1188490453349828</v>
+      </c>
+      <c r="F82">
+        <v>0.1175206583438697</v>
+      </c>
+      <c r="G82">
+        <v>0.151724985785262</v>
+      </c>
+      <c r="H82">
+        <v>0.01327518773227861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01262639267480757</v>
+        <v>-0.006769178023917377</v>
       </c>
       <c r="C83">
-        <v>0.04915855512462051</v>
+        <v>0.01814057778833019</v>
       </c>
       <c r="D83">
-        <v>-0.008118442090291554</v>
+        <v>0.02503117638528585</v>
       </c>
       <c r="E83">
-        <v>-0.04160668860094915</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.1016131254000108</v>
+      </c>
+      <c r="F83">
+        <v>-0.09571078333294296</v>
+      </c>
+      <c r="G83">
+        <v>0.2858610070813425</v>
+      </c>
+      <c r="H83">
+        <v>-0.8881508696571234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.000339556411790465</v>
+        <v>-0.004002787437118604</v>
       </c>
       <c r="C84">
-        <v>0.003476730688284405</v>
+        <v>0.01730333909787539</v>
       </c>
       <c r="D84">
-        <v>-0.01191904514564874</v>
+        <v>0.04144881159047992</v>
       </c>
       <c r="E84">
-        <v>-0.0005909644266693172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.0188257103762489</v>
+      </c>
+      <c r="F84">
+        <v>-0.02941402726426603</v>
+      </c>
+      <c r="G84">
+        <v>0.05199994821866705</v>
+      </c>
+      <c r="H84">
+        <v>0.06152076830396869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1251434869112732</v>
+        <v>0.0543494269757811</v>
       </c>
       <c r="C85">
-        <v>0.1560738334535309</v>
+        <v>0.1762477811535003</v>
       </c>
       <c r="D85">
-        <v>0.08435284967606874</v>
+        <v>-0.1137227016173778</v>
       </c>
       <c r="E85">
-        <v>-0.004877458169157778</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0243887941998404</v>
+      </c>
+      <c r="F85">
+        <v>-0.05720234538899155</v>
+      </c>
+      <c r="G85">
+        <v>0.01762629177253387</v>
+      </c>
+      <c r="H85">
+        <v>0.01878992963277239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02279372268581588</v>
+        <v>0.01656878459212483</v>
       </c>
       <c r="C86">
-        <v>0.01125485611425054</v>
+        <v>0.04152110679278609</v>
       </c>
       <c r="D86">
-        <v>-0.1142758855501003</v>
+        <v>0.1102187611149026</v>
       </c>
       <c r="E86">
-        <v>-0.05163459119067677</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01018711582865227</v>
+      </c>
+      <c r="F86">
+        <v>-0.02365012658344014</v>
+      </c>
+      <c r="G86">
+        <v>-0.005379069181117046</v>
+      </c>
+      <c r="H86">
+        <v>0.01465322308132981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02106452504588268</v>
+        <v>0.01082665750765349</v>
       </c>
       <c r="C87">
-        <v>0.03673440717477205</v>
+        <v>0.06988521052373162</v>
       </c>
       <c r="D87">
-        <v>-0.136920135780185</v>
+        <v>0.1231589069269396</v>
       </c>
       <c r="E87">
-        <v>-0.09091297734633172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.06086194920292051</v>
+      </c>
+      <c r="F87">
+        <v>-0.04662959353824582</v>
+      </c>
+      <c r="G87">
+        <v>0.08202067529783071</v>
+      </c>
+      <c r="H87">
+        <v>0.007759230378812485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04263273517978194</v>
+        <v>0.03240412965792577</v>
       </c>
       <c r="C88">
-        <v>0.05156695759738807</v>
+        <v>0.07163226615346316</v>
       </c>
       <c r="D88">
-        <v>-0.004901975928507121</v>
+        <v>0.0111208109580406</v>
       </c>
       <c r="E88">
-        <v>-0.02425184760876111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.03662832823208879</v>
+      </c>
+      <c r="F88">
+        <v>-0.02055845551798874</v>
+      </c>
+      <c r="G88">
+        <v>-0.01206094786665317</v>
+      </c>
+      <c r="H88">
+        <v>0.01051327824318342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3498043891529593</v>
+        <v>0.3960053650985514</v>
       </c>
       <c r="C89">
-        <v>-0.2869795180906843</v>
+        <v>-0.1641632974746419</v>
       </c>
       <c r="D89">
-        <v>-0.01872453369703726</v>
+        <v>0.04961327820279393</v>
       </c>
       <c r="E89">
-        <v>-0.1089645014267377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02840255256624284</v>
+      </c>
+      <c r="F89">
+        <v>-0.07936223317768767</v>
+      </c>
+      <c r="G89">
+        <v>0.08160480939481253</v>
+      </c>
+      <c r="H89">
+        <v>-0.0482717797567576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2837888150258791</v>
+        <v>0.3236350773988995</v>
       </c>
       <c r="C90">
-        <v>-0.2100016441288917</v>
+        <v>-0.1038262846539167</v>
       </c>
       <c r="D90">
-        <v>-0.06194957720391232</v>
+        <v>0.03458696577310549</v>
       </c>
       <c r="E90">
-        <v>-0.006448867387781725</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0008893691893434507</v>
+      </c>
+      <c r="F90">
+        <v>0.00717428708847226</v>
+      </c>
+      <c r="G90">
+        <v>0.05773020733718306</v>
+      </c>
+      <c r="H90">
+        <v>-0.00393294396987877</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1296827344968899</v>
+        <v>0.06488801660474296</v>
       </c>
       <c r="C91">
-        <v>0.2031306066633301</v>
+        <v>0.203171816339727</v>
       </c>
       <c r="D91">
-        <v>0.08978720105518483</v>
+        <v>-0.09672138980178049</v>
       </c>
       <c r="E91">
-        <v>-0.03477426327083846</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.086351799906435</v>
+      </c>
+      <c r="F91">
+        <v>-0.05882563668018702</v>
+      </c>
+      <c r="G91">
+        <v>0.01399380508506022</v>
+      </c>
+      <c r="H91">
+        <v>-0.02080200750438971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2697026862563631</v>
+        <v>0.337697009863714</v>
       </c>
       <c r="C92">
-        <v>-0.2360812991173306</v>
+        <v>-0.1440288433087331</v>
       </c>
       <c r="D92">
-        <v>0.04038267889631218</v>
+        <v>0.02648495211201067</v>
       </c>
       <c r="E92">
-        <v>-0.0188305710366398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06435608755463974</v>
+      </c>
+      <c r="F92">
+        <v>-0.03604785347536206</v>
+      </c>
+      <c r="G92">
+        <v>-0.005804681048260048</v>
+      </c>
+      <c r="H92">
+        <v>0.1371998166570164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3000569693736904</v>
+        <v>0.3294279736259182</v>
       </c>
       <c r="C93">
-        <v>-0.2140457183475841</v>
+        <v>-0.1182358051598495</v>
       </c>
       <c r="D93">
-        <v>0.02379290984759953</v>
+        <v>-0.02603123518379977</v>
       </c>
       <c r="E93">
-        <v>0.01101124450033624</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.005288291582900199</v>
+      </c>
+      <c r="F93">
+        <v>-0.009587659268536521</v>
+      </c>
+      <c r="G93">
+        <v>-0.02024625973948543</v>
+      </c>
+      <c r="H93">
+        <v>0.02301196430037017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2451552937503181</v>
+        <v>0.1196124496786213</v>
       </c>
       <c r="C94">
-        <v>0.291645711238296</v>
+        <v>0.3200909654306925</v>
       </c>
       <c r="D94">
-        <v>0.2021150699872837</v>
+        <v>-0.3406079326993687</v>
       </c>
       <c r="E94">
-        <v>0.3061968768913343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1583217770762517</v>
+      </c>
+      <c r="F94">
+        <v>0.1480706224028326</v>
+      </c>
+      <c r="G94">
+        <v>0.2918742139671036</v>
+      </c>
+      <c r="H94">
+        <v>0.1156777690835429</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.005617805930296045</v>
+        <v>0.01594820221592198</v>
       </c>
       <c r="C95">
-        <v>0.05139560336000562</v>
+        <v>0.07762297760501013</v>
       </c>
       <c r="D95">
-        <v>-0.1093646810869351</v>
+        <v>0.140968934221116</v>
       </c>
       <c r="E95">
-        <v>-0.04230914723797416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08784797139756959</v>
+      </c>
+      <c r="F95">
+        <v>0.03851718209229648</v>
+      </c>
+      <c r="G95">
+        <v>-0.06276625578258428</v>
+      </c>
+      <c r="H95">
+        <v>0.07474799625740226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002674532221179564</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009661111729806771</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0002489731740810077</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003561596669101897</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004519147580677219</v>
+      </c>
+      <c r="G97">
+        <v>0.0006677686378857679</v>
+      </c>
+      <c r="H97">
+        <v>0.00560724370307716</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1450046421628841</v>
+        <v>0.1348696649464854</v>
       </c>
       <c r="C98">
-        <v>0.1057676680280317</v>
+        <v>0.1638429501864923</v>
       </c>
       <c r="D98">
-        <v>-0.1222287846288836</v>
+        <v>0.01064052015224</v>
       </c>
       <c r="E98">
-        <v>0.1072922676736408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1732942321283934</v>
+      </c>
+      <c r="F98">
+        <v>0.2495720238129999</v>
+      </c>
+      <c r="G98">
+        <v>-0.2974505419811857</v>
+      </c>
+      <c r="H98">
+        <v>-0.1356759433175368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003602467113961251</v>
+        <v>0.002477840585232821</v>
       </c>
       <c r="C101">
-        <v>0.02114314051109283</v>
+        <v>0.04002705443124427</v>
       </c>
       <c r="D101">
-        <v>-0.07218916936858671</v>
+        <v>0.0850661081275489</v>
       </c>
       <c r="E101">
-        <v>-0.04843892418473343</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1061038258057016</v>
+      </c>
+      <c r="F101">
+        <v>-0.03866838718638199</v>
+      </c>
+      <c r="G101">
+        <v>0.01595445276262956</v>
+      </c>
+      <c r="H101">
+        <v>-0.03680348503140632</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08290139228078242</v>
+        <v>0.02009311067024546</v>
       </c>
       <c r="C102">
-        <v>0.1676340561664056</v>
+        <v>0.1367887527156419</v>
       </c>
       <c r="D102">
-        <v>0.01490671295325392</v>
+        <v>-0.09235827653630226</v>
       </c>
       <c r="E102">
-        <v>0.1056460295377941</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.06268213117238609</v>
+      </c>
+      <c r="F102">
+        <v>0.08456210726260531</v>
+      </c>
+      <c r="G102">
+        <v>0.01587411185057505</v>
+      </c>
+      <c r="H102">
+        <v>-0.02342934532419702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
